--- a/ExcelFileConverter/bin/Debug/Book1.xlsx
+++ b/ExcelFileConverter/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R40a3236518604601"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R04208046d08f4527"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc25d09ea655f41ea"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6dedd67663ff42eb"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{840a7a5c-d344-4431-93ec-c1d323c939f4}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{69f7752c-4674-45b6-8559-d2bc58088b19}">
   <we:reference id="da12c792-3b17-4ea1-b284-3425e0d06c69" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
